--- a/results_analysis/spok_eletricity_ttt.xlsx
+++ b/results_analysis/spok_eletricity_ttt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E0F7A-D325-4F4F-A3B3-B4D247D96672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D210EE-9BCE-404F-BE53-1BBE35DA27B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_final" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,28 @@
     <sheet name="hp_kernel" sheetId="12" r:id="rId9"/>
     <sheet name="v1_v2" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="32">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -142,7 +153,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +161,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -518,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,6 +713,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,6 +732,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -989,7 +1020,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,29 +1028,27 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1321,7 +1350,7 @@
         <v>0.74677288319191204</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -1331,98 +1360,370 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-    </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-    </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-    </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="57">
+        <f>1-D5</f>
+        <v>0.25595775410723898</v>
+      </c>
+      <c r="E15" s="57">
+        <f t="shared" ref="E15:K15" si="0">1-E5</f>
+        <v>0.27319913341758395</v>
+      </c>
+      <c r="F15" s="57">
+        <f t="shared" si="0"/>
+        <v>0.255619245351146</v>
+      </c>
+      <c r="G15" s="57">
+        <f t="shared" si="0"/>
+        <v>0.25979418667629495</v>
+      </c>
+      <c r="H15" s="57">
+        <f t="shared" si="0"/>
+        <v>0.25841758440151597</v>
+      </c>
+      <c r="I15" s="57">
+        <f t="shared" si="0"/>
+        <v>0.25902690016248398</v>
+      </c>
+      <c r="J15" s="57">
+        <f t="shared" si="0"/>
+        <v>0.28468586387434602</v>
+      </c>
+      <c r="K15" s="57">
+        <f t="shared" si="0"/>
+        <v>0.26636125654450304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="57">
+        <f t="shared" ref="D16:K16" si="1">1-D6</f>
+        <v>0.25487452608774097</v>
+      </c>
+      <c r="E16" s="57">
+        <f t="shared" si="1"/>
+        <v>0.30445477523018605</v>
+      </c>
+      <c r="F16" s="57">
+        <f t="shared" si="1"/>
+        <v>0.27439519768911402</v>
+      </c>
+      <c r="G16" s="57">
+        <f t="shared" si="1"/>
+        <v>0.27207077089727405</v>
+      </c>
+      <c r="H16" s="57">
+        <f t="shared" si="1"/>
+        <v>0.27532045495576796</v>
+      </c>
+      <c r="I16" s="57">
+        <f t="shared" si="1"/>
+        <v>0.48794908828308403</v>
+      </c>
+      <c r="J16" s="57">
+        <f t="shared" si="1"/>
+        <v>0.32578082686405496</v>
+      </c>
+      <c r="K16" s="57">
+        <f t="shared" si="1"/>
+        <v>0.26315670698682103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="57">
+        <f t="shared" ref="D17:K17" si="2">1-D7</f>
+        <v>0.27383101642895802</v>
+      </c>
+      <c r="E17" s="57">
+        <f t="shared" si="2"/>
+        <v>0.25956851417223303</v>
+      </c>
+      <c r="F17" s="57">
+        <f t="shared" si="2"/>
+        <v>0.26895649034121705</v>
+      </c>
+      <c r="G17" s="57">
+        <f t="shared" si="2"/>
+        <v>0.25986188842751401</v>
+      </c>
+      <c r="H17" s="57">
+        <f t="shared" si="2"/>
+        <v>0.257695432388518</v>
+      </c>
+      <c r="I17" s="57">
+        <f t="shared" si="2"/>
+        <v>0.25963621592345199</v>
+      </c>
+      <c r="J17" s="57">
+        <f t="shared" si="2"/>
+        <v>0.29183968225311396</v>
+      </c>
+      <c r="K17" s="57">
+        <f t="shared" si="2"/>
+        <v>0.25823704639826695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="57">
+        <f t="shared" ref="D18:K18" si="3">1-D8</f>
+        <v>0.270107420111934</v>
+      </c>
+      <c r="E18" s="57">
+        <f t="shared" si="3"/>
+        <v>0.382221520129987</v>
+      </c>
+      <c r="F18" s="57">
+        <f t="shared" si="3"/>
+        <v>0.27096497562736899</v>
+      </c>
+      <c r="G18" s="57">
+        <f t="shared" si="3"/>
+        <v>0.25270807004874496</v>
+      </c>
+      <c r="H18" s="57">
+        <f t="shared" si="3"/>
+        <v>0.25692814587470703</v>
+      </c>
+      <c r="I18" s="57">
+        <f t="shared" si="3"/>
+        <v>0.27538815670698702</v>
+      </c>
+      <c r="J18" s="57">
+        <f t="shared" si="3"/>
+        <v>0.284979238129626</v>
+      </c>
+      <c r="K18" s="57">
+        <f t="shared" si="3"/>
+        <v>0.26071944394294999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="57">
+        <f t="shared" ref="D19:K19" si="4">1-D9</f>
+        <v>0.25482939158692897</v>
+      </c>
+      <c r="E19" s="57">
+        <f t="shared" si="4"/>
+        <v>0.30046037190828701</v>
+      </c>
+      <c r="F19" s="57">
+        <f t="shared" si="4"/>
+        <v>0.25582235060480196</v>
+      </c>
+      <c r="G19" s="57">
+        <f t="shared" si="4"/>
+        <v>0.26281819823072805</v>
+      </c>
+      <c r="H19" s="57">
+        <f t="shared" si="4"/>
+        <v>0.25460371908286705</v>
+      </c>
+      <c r="I19" s="57">
+        <f t="shared" si="4"/>
+        <v>0.25460371908286705</v>
+      </c>
+      <c r="J19" s="57">
+        <f t="shared" si="4"/>
+        <v>0.274688571944394</v>
+      </c>
+      <c r="K19" s="57">
+        <f t="shared" si="4"/>
+        <v>0.25295630980321404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="57">
+        <f t="shared" ref="D20:K20" si="5">1-D10</f>
+        <v>0.27796082325329496</v>
+      </c>
+      <c r="E20" s="57">
+        <f t="shared" si="5"/>
+        <v>0.25320454955768201</v>
+      </c>
+      <c r="F20" s="57">
+        <f t="shared" si="5"/>
+        <v>0.28014984654269703</v>
+      </c>
+      <c r="G20" s="57">
+        <f t="shared" si="5"/>
+        <v>0.25983932117710795</v>
+      </c>
+      <c r="H20" s="57">
+        <f t="shared" si="5"/>
+        <v>0.26550370102906695</v>
+      </c>
+      <c r="I20" s="57">
+        <f t="shared" si="5"/>
+        <v>0.24970662574471902</v>
+      </c>
+      <c r="J20" s="57">
+        <f t="shared" si="5"/>
+        <v>0.32207979779743601</v>
+      </c>
+      <c r="K20" s="64">
+        <f t="shared" si="5"/>
+        <v>0.24686315219353705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="57">
+        <f t="shared" ref="D21:K21" si="6">1-D11</f>
+        <v>0.25336252031052497</v>
+      </c>
+      <c r="E21" s="57">
+        <f t="shared" si="6"/>
+        <v>0.27852500451344997</v>
+      </c>
+      <c r="F21" s="57">
+        <f t="shared" si="6"/>
+        <v>0.25365589456580595</v>
+      </c>
+      <c r="G21" s="57">
+        <f t="shared" si="6"/>
+        <v>0.25649936811698903</v>
+      </c>
+      <c r="H21" s="57">
+        <f t="shared" si="6"/>
+        <v>0.25609315760967699</v>
+      </c>
+      <c r="I21" s="57">
+        <f t="shared" si="6"/>
+        <v>0.26058404044051298</v>
+      </c>
+      <c r="J21" s="57">
+        <f t="shared" si="6"/>
+        <v>0.27116808088102495</v>
+      </c>
+      <c r="K21" s="57">
+        <f t="shared" si="6"/>
+        <v>0.26211861346813503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="57">
+        <f t="shared" ref="D22:K22" si="7">1-D12</f>
+        <v>0.28459559487272101</v>
+      </c>
+      <c r="E22" s="57">
+        <f t="shared" si="7"/>
+        <v>0.304003430222062</v>
+      </c>
+      <c r="F22" s="57">
+        <f t="shared" si="7"/>
+        <v>0.30095685141722295</v>
+      </c>
+      <c r="G22" s="57">
+        <f t="shared" si="7"/>
+        <v>0.25776313413973595</v>
+      </c>
+      <c r="H22" s="57">
+        <f t="shared" si="7"/>
+        <v>0.25148943852681005</v>
+      </c>
+      <c r="I22" s="57">
+        <f t="shared" si="7"/>
+        <v>0.27387615092977102</v>
+      </c>
+      <c r="J22" s="57">
+        <f t="shared" si="7"/>
+        <v>0.39316663657699902</v>
+      </c>
+      <c r="K22" s="57">
+        <f t="shared" si="7"/>
+        <v>0.25322711680808796</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -1432,8 +1733,7 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="15"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -1442,7 +1742,7 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
@@ -1452,7 +1752,7 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
@@ -1462,7 +1762,7 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
     </row>
-    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
@@ -1472,7 +1772,7 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
     </row>
-    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -1482,7 +1782,7 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1492,7 +1792,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -1502,7 +1802,7 @@
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -1512,7 +1812,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -1683,61 +1983,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="59" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="59" t="s">
+      <c r="G3" s="61"/>
+      <c r="H3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="60"/>
-      <c r="J3" s="59" t="s">
+      <c r="I3" s="61"/>
+      <c r="J3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="59" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="59" t="s">
+      <c r="M3" s="61"/>
+      <c r="N3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="60"/>
-      <c r="P3" s="59" t="s">
+      <c r="O3" s="61"/>
+      <c r="P3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="59" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="61"/>
+      <c r="S3" s="62"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -2585,19 +2885,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3341,19 +3641,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4097,19 +4397,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4835,7 +5135,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4852,19 +5152,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5370,19 +5670,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5888,19 +6188,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6388,7 +6688,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6406,19 +6706,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6926,24 +7226,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6953,29 +7253,29 @@
       <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="17" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="59" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="59" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="61"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
